--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 45 62 50 65 69 67 61 67</t>
-  </si>
-  <si>
-    <t>11 14 21 21 26 24 22 24 14</t>
-  </si>
-  <si>
-    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99</t>
-  </si>
-  <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0</t>
+    <t>66 45 62 50 65 69 67 61 67 64</t>
+  </si>
+  <si>
+    <t>11 14 21 21 26 24 22 24 14 30</t>
+  </si>
+  <si>
+    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44</t>
+  </si>
+  <si>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -677,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>122</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3">
         <v>40</v>
-      </c>
-      <c r="J3">
-        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="M3">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>390</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>108</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>311</v>
@@ -996,37 +996,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="M3">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>405</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,22 +1233,22 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 45 62 50 65 69 67 61 67 64</t>
-  </si>
-  <si>
-    <t>11 14 21 21 26 24 22 24 14 30</t>
+    <t>66 45 62 50 65 69 67 61 67 64 69 65 67</t>
+  </si>
+  <si>
+    <t>11 14 21 21 26 24 22 24 14 30 23 33 17</t>
   </si>
   <si>
     <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44</t>
   </si>
   <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5</t>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="M2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>323</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,28 +964,28 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="M2">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="N2">
         <v>24</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>311</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>154</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1239,19 +1239,19 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 45 62 50 65 69 67 61 67 64 69 65 67</t>
-  </si>
-  <si>
-    <t>11 14 21 21 26 24 22 24 14 30 23 33 17</t>
-  </si>
-  <si>
-    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44</t>
-  </si>
-  <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0</t>
+    <t>66 45 62 50 65 69 67 61 67 64 69 65 67 69 66</t>
+  </si>
+  <si>
+    <t>11 14 21 21 26 24 22 24 14 30 23 33 17 34 27</t>
+  </si>
+  <si>
+    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33</t>
+  </si>
+  <si>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>136</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -721,37 +721,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>32</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M3">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>464</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>136</v>
       </c>
       <c r="N2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>387</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="M3">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>476</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>35</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>11 14 21 21 26 24 22 24 14 30 23 33 17 34 27</t>
   </si>
   <si>
-    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33</t>
-  </si>
-  <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2</t>
+    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33 9 0 7</t>
+  </si>
+  <si>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61 37 47 63 39 40</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0 0 14 0 0 61</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,25 +668,25 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>24</v>
@@ -695,22 +695,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="M2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>392</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>197</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -952,40 +952,40 @@
         <v>12</v>
       </c>
       <c r="F2">
+        <v>59</v>
+      </c>
+      <c r="G2">
         <v>55</v>
-      </c>
-      <c r="G2">
-        <v>48</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="M2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2">
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>387</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1005,19 +1005,19 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 3 3 0 5 6 1 -1 11 1 -5</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 12 6 7 0 1 6 7 2 16 1 4 15 12 11 -1 10 7 21 14 6 -1 7 30 1</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 2 7 6 2 27 3 3 -1 2 28 5 4 3 8 3 7 4 3 5 2 9 3 5 7 11 4 3 0 10 1 -1</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 19 30 0 4 0 6 12 13 2 4 15 17 5 20 19 8 3 6 17 11 9 13 9 11 14 5 9 7 0 7 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>11 14 21 21 26 24 22 24 14 30 23 33 17 34 27</t>
   </si>
   <si>
-    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33 9 0 7</t>
-  </si>
-  <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61 37 47 63 39 40</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0 0 14 0 0 61</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2 0 0</t>
+    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33 9 0 7 29 37 17 20</t>
+  </si>
+  <si>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61 37 47 63 39 40 45 42 55 44 46 64</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0 0 14 0 0 61 0 0 10 0 21 2</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,13 +677,13 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>56</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -701,13 +701,13 @@
         <v>163</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>455</v>
@@ -721,37 +721,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M3">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>528</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -952,19 +952,19 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>13</v>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1005,28 +1005,28 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="M3">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>548</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Vikings/2021 Team Data.xlsx
+++ b/Base/Teams/Vikings/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 3 3 0 5 6 1 -1 11 1 -5</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 12 6 7 0 1 6 7 2 16 1 4 15 12 11 -1 10 7 21 14 6 -1 7 30 1</t>
-  </si>
-  <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 2 7 6 2 27 3 3 -1 2 28 5 4 3 8 3 7 4 3 5 2 9 3 5 7 11 4 3 0 10 1 -1</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 19 30 0 4 0 6 12 13 2 4 15 17 5 20 19 8 3 6 17 11 9 13 9 11 14 5 9 7 0 7 12</t>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 4 -2 -2 9 4 0 5 5 11 3 6 0 3 3 3 0 5 48 2 4 -1 3 2 2 1 2 1 0 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 5 3 -4 12 6 6 8 5 5 3 4 7 4 -3 5 -1 3 1 4 0 2 7 0 1 5 2 4 1 11 -1 6 -1 3 3 1 2 5 0 -1 4 0 7 4 3 5 13 2 4 0 7 2 0 4 3 7 12 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 7 5 1 4 9 3 5 -4 3 10 -1 2 5 1 8 11 4 8 0 1 3 4 4 2 5 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 3 3 0 5 6 1 -1 11 1 -5 6 3 9 0 3 -3 3 0 4 5 4 25 -2 -1 1 6 5 29 -4 4 8</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 37 14 4 17 6 3 6 14 22 2 15 4 9 2 11 6 3 14 9 7 16 8 21 6 19 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 14 6 -1 10 24 7 7 9 3 18 21 21 5 4 27 19 3 12 15 16 3 27 5 18 5 43 3 18 56 15 10 5 7 15 6 7 9 21 5 19 6 7 7 3 23 6 19 26 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 19 0 18 -2 -2 34 6 7 14 6 2 16 15 11 5 19 10 48 7 16 4 21 14 16 5 14 5 -2 11 3 8 5 8 14 18 22 19 17 13 0 1 62 12 17 5 3 0 2 18 12 4 9 7 7 7 13 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 12 6 7 0 1 6 7 2 16 1 4 15 12 11 -1 10 7 21 14 6 -1 7 30 1 3 7 3 25 40 -3 44 9 4 19 7 45 26 21</t>
+  </si>
+  <si>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 2 3 12 1 1 11 4 9 5 4 3 1 2 4 13 4 9 0 3 3 0 4 3 7 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 5 4 5 1 0 4 3 17 1 1 3 5 5 9 2 6 3 3 5 4 1 5 3 2 1 0 11 2 5 4 18 11 7 6 5 7 4 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 2 10 1 2 8 4 5 4 6 8 2 4 3 0 2 -2 2 11 1 0 5 9 3 5 6 0 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 2 7 6 2 27 3 3 -1 2 28 5 4 3 8 3 7 4 3 5 2 9 3 5 7 11 4 3 0 10 1 -1 5 4 6 0 0 3 11 1 3 1 8 6 4 9 3 4 3 3 -1 7 1 0 4 1</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 10 8 13 4 13 8 4 4 6 21 8 14 5 2 17 2 8 7 18 21 10 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 11 10 18 2 7 8 5 4 22 17 11 10 2 7 7 26 13 6 2 37 2 4 13 3 5 39 8 17 12 15 8 25 13 12 17 10 9 13 26 4 18 75 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 9 9 25 9 28 23 6 5 27 7 6 24 7 8 14 9 5 6 13 9 9 9 10 8 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 19 30 0 4 0 6 12 13 2 4 15 17 5 20 19 8 3 6 17 11 9 13 9 11 14 5 9 7 0 7 12 14 16 3 5 5 19 11 16 6 18 -1 14 5 8 23 8 20 13 19 6 4 4 6 18 7 7 6 3 11 2 10 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 45 62 50 65 69 67 61 67 64 69 65 67 69 66</t>
-  </si>
-  <si>
-    <t>11 14 21 21 26 24 22 24 14 30 23 33 17 34 27</t>
-  </si>
-  <si>
-    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33 9 0 7 29 37 17 20</t>
-  </si>
-  <si>
-    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61 37 47 63 39 40 45 42 55 44 46 64</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0 0 14 0 0 61 0 0 10 0 21 2</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2 0 0 0 0</t>
+    <t>66 45 62 50 65 69 67 61 67 64 69 65 67 69 66 64</t>
+  </si>
+  <si>
+    <t>11 14 21 21 26 24 22 24 14 30 23 33 17 34 27 36</t>
+  </si>
+  <si>
+    <t>21 22 24 16 26 14 24 13 17 45 23 23 98 23 15 21 18 30 21 99 21 44 18 33 9 0 7 29 37 17 20 14 24</t>
+  </si>
+  <si>
+    <t>39 46 49 61 52 41 51 63 46 43 50 60 32 49 45 58 47 58 46 36 46 50 54 46 44 54 53 37 44 37 37 39 51 29 53 54 41 53 41 40 42 55 45 33 47 45 56 59 46 49 37 46 49 51 48 49 17 31 46 61 37 47 63 39 40 45 42 55 44 46 64 42 29 52 57 52 40</t>
+  </si>
+  <si>
+    <t>8 15 0 12 15 3 0 0 6 0 8 5 0 0 0 8 8 9 0 2 -2 14 0 0 1 0 4 0 0 7 0 -3 0 0 0 0 0 14 0 9 14 13 0 0 0 0 12 2 0 0 0 0 8 0 6 -1 0 0 0 0 0 14 0 0 61 0 0 10 0 21 2 17 0 9 11 10 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 18 0 -4 15 13 -1 0 11 0 0 2 0 0 0 0 2 0 7 0 0 0 0 0 7 0 0 0 0 0 45 0 0 7 17 0 8 0 0 0 16 2 5 16 12 0 0 15 0 11 3 2 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,28 +677,28 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="M2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>455</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,16 +718,16 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>85</v>
@@ -736,13 +736,13 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>221</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="M2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>456</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>211</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2">
         <v>36</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,10 +1348,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
